--- a/data/trans_camb/P25_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_4-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 9,98</t>
+          <t>-12,5; 9,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 7,17</t>
+          <t>-14,34; 5,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 6,45</t>
+          <t>-13,5; 10,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 6,0</t>
+          <t>-3,72; 12,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 5,76</t>
+          <t>-5,55; 8,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 4,25</t>
+          <t>-10,95; 0,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 7,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 4,38</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 3,28</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>-8,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-40,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>148,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35,72%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-14,79%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-36,99%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 268,74</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 160,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 448,52</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-69,45; 334,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 154,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,97; 123,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-71,6; 395,82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-87,94; 349,28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>-0,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,47</t>
+          <t>-2,33; 2,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,07</t>
+          <t>-2,52; 2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,57</t>
+          <t>-3,1; 1,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 6,53</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,55</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 2,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 2,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 0,9</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,61%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>62,22%</t>
+          <t>-14,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>119,9%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>111,21%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,42%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 220,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,44; 210,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,96; 645,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,23; 811,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 206,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,9; 232,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-78,23; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,35</t>
+          <t>-1,61; 5,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,12</t>
+          <t>-3,18; 2,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,22</t>
+          <t>-3,13; 2,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,02</t>
+          <t>-2,8; 2,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,07</t>
+          <t>-2,89; 2,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,94</t>
+          <t>-0,96; 11,15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 2,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 1,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 5,87</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-51,78%</t>
+          <t>-15,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>-38,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>-1,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-29,24%</t>
+          <t>165,02%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>72,41%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,91; 471,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,29 +1233,44 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,08; 295,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,59; 269,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 203,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,87; 105,34</t>
+          <t>-80,33; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-67,91; 414,05</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-82,8; 322,07</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-71,09; 1000,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-22,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 98,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 65,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 179,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 200,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 94,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 85,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 3,06</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 1,63</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 1,9</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 2,92</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 2,32</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 3,87</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 2,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 1,45</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 1,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>29,9%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-13,85%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-12,2%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>98,45%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>61,74%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>58,99%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>54,62%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-56,97; 236,79</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-72,04; 162,41</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-74,87; 194,71</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-56,48; 829,79</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-68,6; 645,97</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-86,43; 1749,92</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-32,56; 218,85</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-51,98; 164,38</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-57,53; 211,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
